--- a/academias/Ciencias Sociales - Estadisticos 20242.xlsx
+++ b/academias/Ciencias Sociales - Estadisticos 20242.xlsx
@@ -855,25 +855,25 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -887,25 +887,25 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -922,25 +922,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>5.1</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -954,25 +954,25 @@
         <v>39</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>5.1</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -989,25 +989,25 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1021,25 +1021,25 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1056,25 +1056,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>56.4</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>43.6</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1088,25 +1088,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>56.4</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>43.6</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="J9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1117,25 +1117,25 @@
         <v>126</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F10">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>15.1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J10">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>5.1</v>
       </c>
       <c r="I4" s="2">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>5.1</v>
       </c>
       <c r="I5" s="2">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>5.1</v>
       </c>
       <c r="I8" s="2">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>5.1</v>
       </c>
       <c r="I9" s="2">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>3.2</v>
       </c>
       <c r="I10" s="2">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/academias/Ciencias Sociales - Estadisticos 20242.xlsx
+++ b/academias/Ciencias Sociales - Estadisticos 20242.xlsx
@@ -1056,25 +1056,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>56.4</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>43.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1088,25 +1088,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>56.4</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>43.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1117,25 +1117,25 @@
         <v>126</v>
       </c>
       <c r="E10">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>84.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>15.1</v>
+        <v>1.6</v>
       </c>
       <c r="I10" s="2">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1407,19 +1407,19 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>94.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1439,19 +1439,19 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>94.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1468,16 +1468,16 @@
         <v>126</v>
       </c>
       <c r="E10">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>96.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="I10" s="2">
         <v>8.800000000000001</v>
